--- a/Week09/Week9-2.xlsx
+++ b/Week09/Week9-2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/マイドライブ/Classroom/2022 2nd Semester/IntroStats/GitHub/IntroStats/Week09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B59E19-7710-AD4F-8EA9-B996B410C510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF9A2AF-6992-F14C-9CEC-F37AA8CFCB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{CF8CDEA4-952D-FB49-B63D-E62EF39DBDBE}"/>
+    <workbookView xWindow="-15220" yWindow="-24780" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{CF8CDEA4-952D-FB49-B63D-E62EF39DBDBE}"/>
   </bookViews>
   <sheets>
-    <sheet name="1 クラス身長 (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="1 クラス身長" sheetId="1" r:id="rId2"/>
-    <sheet name="２ アニメ身長" sheetId="2" r:id="rId3"/>
+    <sheet name="1 クラス身長 (女)" sheetId="3" r:id="rId1"/>
+    <sheet name="2 クラス身長（男）" sheetId="1" r:id="rId2"/>
+    <sheet name="3 アニメ身長" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>ハム太郎</t>
     <phoneticPr fontId="1"/>
@@ -195,13 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出所：https://matomake.com/I0005403</t>
-    <rPh sb="0" eb="2">
-      <t>シュッショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>黒子テツヤ</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">クロコ </t>
@@ -378,6 +371,101 @@
     <t>⑧ 変動係数（σ÷μ）→</t>
     <rPh sb="2" eb="6">
       <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨ Z値 (身長-μ)/σ</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最小値（MIN)</t>
+    <rPh sb="0" eb="3">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央値（Q２)</t>
+    <rPh sb="0" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第３四分位置（Q3）</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ3</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シブn</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">１ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第１四分位置（Q１)</t>
+    <rPh sb="0" eb="1">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>sh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大値（MAX)</t>
+    <rPh sb="0" eb="1">
+      <t>サイコウチ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zephyr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Garp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四分位範囲（Q 3-Q１)</t>
+    <rPh sb="0" eb="2">
+      <t>ヨンプn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>1</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下のひげ（Q1ー四分位範囲x１.５）</t>
+    <rPh sb="0" eb="1">
+      <t>シタノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上のひげ（Q3＋四分位範囲x１.５）</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -386,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,8 +568,42 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,8 +622,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -651,6 +779,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -660,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,15 +838,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -716,9 +875,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -730,15 +886,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -754,17 +901,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -773,6 +911,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C6B8D1-C469-B04C-AEC6-F7628488BD6B}">
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1103,240 +1301,255 @@
     <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="1"/>
+    <col min="7" max="7" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="8">
+        <v>148</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:10" ht="25" thickBot="1">
+      <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="8">
+        <v>154</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="8">
+        <v>157</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="31"/>
+      <c r="I5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="8">
+        <v>158</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="G6" s="31"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="8">
+        <v>159</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7" s="31"/>
+      <c r="I7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="8">
+        <v>160</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="G8" s="31"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8">
+        <v>160</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="G9" s="31"/>
+      <c r="I9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8">
+        <v>161</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="G10" s="31"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="2:10" ht="25" thickBot="1">
+      <c r="B11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="8">
+        <v>162</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="G11" s="31"/>
+      <c r="I11" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="8">
+        <v>163</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="31"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="8">
+        <v>165</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="8">
+        <v>165</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8">
+        <v>166</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="12">
+        <v>168</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="10">
-        <v>158</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="10">
-        <v>166</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="10">
-        <v>160</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="10">
-        <v>162</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" ht="25" thickBot="1">
-      <c r="B7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="10">
-        <v>161</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="10">
-        <v>165</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="10">
-        <v>157</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="10">
-        <v>160</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="10">
-        <v>165</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="2:9" ht="25" thickBot="1">
-      <c r="B12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="10">
-        <v>168</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="10">
-        <v>148</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="10">
-        <v>159</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="10">
-        <v>154</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="14">
-        <v>163</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="33"/>
-      <c r="C17" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="33"/>
+      <c r="F17" s="17"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G17">
+    <sortCondition ref="D2:D17"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1345,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D404FE-BFDA-8F4D-AF2D-C6EF78E0FC0C}">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1358,193 +1571,199 @@
     <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="1"/>
+    <col min="7" max="7" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="8">
+        <v>165</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:10" ht="25" thickBot="1">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="C4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="8">
+        <v>165</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="8">
+        <v>165</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="31"/>
+      <c r="I5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="8">
+        <v>167</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="G6" s="31"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8">
+        <v>170</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="31"/>
+      <c r="I7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="8">
+        <v>171</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="G8" s="31"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="8">
+        <v>174</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="G9" s="31"/>
+      <c r="I9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="8">
+        <v>175</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="G10" s="31"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="2:10" ht="25" thickBot="1">
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="8">
+        <v>175</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="G11" s="31"/>
+      <c r="I11" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="12">
+        <v>178</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="C13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="10">
-        <v>165</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:9" ht="25" thickBot="1">
-      <c r="B4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="10">
-        <v>178</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="10">
-        <v>175</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="H5" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="10">
-        <v>174</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="10">
-        <v>167</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="H7" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="10">
-        <v>175</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="10">
-        <v>165</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="10">
-        <v>171</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-    </row>
-    <row r="11" spans="2:9" ht="25" thickBot="1">
-      <c r="B11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="10">
-        <v>165</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="37"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="14">
-        <v>170</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="C13" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E12">
-    <sortCondition ref="E3:E12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G13">
+    <sortCondition ref="D2:D13"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1554,339 +1773,402 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC0C76A-A32F-B144-AFD1-FEFB1DDB83F5}">
-  <dimension ref="A2:C42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="37.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:6" ht="35" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:6" ht="35" customHeight="1">
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="E2" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="38">
+        <f>QUARTILE(C3:C41,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="35" customHeight="1">
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35">
+        <v>8</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="27">
+        <f>QUARTILE(C3:C41,1)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="35" customHeight="1">
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35">
+        <v>10</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="27">
+        <f>QUARTILE(C3:C41,2 )</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="35" customHeight="1">
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35">
+        <v>10</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="27">
+        <f>QUARTILE(C3:C41,3 )</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="35" customHeight="1" thickBot="1">
+      <c r="B6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="35">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="E6" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="28">
+        <f>QUARTILE(C3:C41,4)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="35" customHeight="1" thickBot="1">
+      <c r="B7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="35" customHeight="1">
+      <c r="B8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="35">
+        <v>66</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="2:6" ht="35" customHeight="1">
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="35">
+        <v>95</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="2:6" ht="35" customHeight="1" thickBot="1">
+      <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="C10" s="35">
+        <v>100</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="2:6" ht="35" customHeight="1">
+      <c r="B11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="35" customHeight="1">
+      <c r="B12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="35" customHeight="1">
+      <c r="B13" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="23">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="23">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="23">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="23">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="23">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="23">
+      <c r="C13" s="35">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="2:6" ht="35" customHeight="1">
+      <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="35">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="2:6" ht="35" customHeight="1">
+      <c r="B15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="35">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="22" t="s">
+    <row r="16" spans="2:6" ht="35" customHeight="1">
+      <c r="B16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="35">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="22" t="s">
+    <row r="17" spans="2:3" ht="35" customHeight="1">
+      <c r="B17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="35">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="22" t="s">
+    <row r="18" spans="2:3" ht="35" customHeight="1">
+      <c r="B18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="35">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="2:3" ht="35" customHeight="1">
+      <c r="B19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="35">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="22" t="s">
+    <row r="20" spans="2:3" ht="35" customHeight="1">
+      <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="35">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="22" t="s">
+    <row r="21" spans="2:3" ht="35" customHeight="1">
+      <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="35">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="22" t="s">
+    <row r="22" spans="2:3" ht="35" customHeight="1">
+      <c r="B22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="35">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="2:3" ht="35" customHeight="1">
+      <c r="B23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="35">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="22" t="s">
+    <row r="24" spans="2:3" ht="35" customHeight="1">
+      <c r="B24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="35">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="22" t="s">
+    <row r="25" spans="2:3" ht="35" customHeight="1">
+      <c r="B25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="35">
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="22" t="s">
+    <row r="26" spans="2:3" ht="35" customHeight="1">
+      <c r="B26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="35">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="22" t="s">
+    <row r="27" spans="2:3" ht="35" customHeight="1">
+      <c r="B27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="35">
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="22" t="s">
+    <row r="28" spans="2:3" ht="35" customHeight="1">
+      <c r="B28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="35">
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="22" t="s">
+    <row r="29" spans="2:3" ht="35" customHeight="1">
+      <c r="B29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="35" customHeight="1">
+      <c r="B30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="35" customHeight="1">
+      <c r="B31" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="23">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="23">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="22" t="s">
+      <c r="C31" s="35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="35" customHeight="1">
+      <c r="B32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="35" customHeight="1">
+      <c r="B33" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="35" customHeight="1">
+      <c r="B34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="35" customHeight="1">
+      <c r="B35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="35" customHeight="1">
+      <c r="B36" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="35" customHeight="1">
+      <c r="B37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="35" customHeight="1">
+      <c r="B38" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="35" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="23">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="23">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="23">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="23">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="23">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="23">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="23">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="23">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="35">
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="26" t="s">
-        <v>35</v>
-      </c>
+    <row r="40" spans="1:3" ht="35" customHeight="1">
+      <c r="B40" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="43">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="35" customHeight="1">
+      <c r="B41" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="45">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="35" customHeight="1">
+      <c r="A42" s="20"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B39">
     <sortCondition ref="B1:B39"/>
   </sortState>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="A42" r:id="rId1" xr:uid="{B095CDEF-5600-2B43-943A-64F2381C4DC6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>